--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_413__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_413__Reeval_LHS_Modell_1.3.xlsx
@@ -5876,40 +5876,40 @@
                   <c:v>63.624267578125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.703125</c:v>
+                  <c:v>70.70310974121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.56869506835938</c:v>
+                  <c:v>54.56870269775391</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>70.96372985839844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.05840301513672</c:v>
+                  <c:v>69.05841064453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.85018920898438</c:v>
+                  <c:v>62.85019683837891</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64.8331298828125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.09346771240234</c:v>
+                  <c:v>69.09346008300781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.29100036621094</c:v>
+                  <c:v>58.29100799560547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.05502319335938</c:v>
+                  <c:v>61.05501556396484</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.40891265869141</c:v>
+                  <c:v>65.40890502929688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.85262298583984</c:v>
+                  <c:v>62.85261535644531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.70481872558594</c:v>
+                  <c:v>53.70481109619141</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>76.00788116455078</c:v>
@@ -5924,7 +5924,7 @@
                   <c:v>73.41462707519531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66.57572937011719</c:v>
+                  <c:v>66.57572174072266</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>68.12676239013672</c:v>
@@ -5942,19 +5942,19 @@
                   <c:v>73.47739410400391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.68598937988281</c:v>
+                  <c:v>71.68599700927734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>71.35027313232422</c:v>
+                  <c:v>71.35028076171875</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59.61439514160156</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.28861999511719</c:v>
+                  <c:v>70.28861236572266</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.70022583007812</c:v>
+                  <c:v>70.70021820068359</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>62.45840454101562</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>73.79862976074219</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.790771484375</c:v>
+                  <c:v>69.79076385498047</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>65.73122406005859</c:v>
@@ -5975,7 +5975,7 @@
                   <c:v>64.41104125976562</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>71.85550689697266</c:v>
+                  <c:v>71.85549926757812</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>65.04608154296875</c:v>
@@ -5987,7 +5987,7 @@
                   <c:v>69.25218963623047</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69.06288909912109</c:v>
+                  <c:v>69.06288146972656</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>63.14299774169922</c:v>
@@ -6005,13 +6005,13 @@
                   <c:v>67.68106079101562</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>75.60533142089844</c:v>
+                  <c:v>75.60532379150391</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.40284729003906</c:v>
+                  <c:v>69.40283966064453</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.63510131835938</c:v>
+                  <c:v>61.63509368896484</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>56.57759857177734</c:v>
@@ -6026,34 +6026,34 @@
                   <c:v>69.32067108154297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>68.14293670654297</c:v>
+                  <c:v>68.14292907714844</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.73600769042969</c:v>
+                  <c:v>53.73600387573242</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>74.32714080810547</c:v>
+                  <c:v>74.32713317871094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.84222412109375</c:v>
+                  <c:v>70.84223175048828</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>68.09751892089844</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>72.00331878662109</c:v>
+                  <c:v>72.00331115722656</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>56.54624938964844</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>66.11190032958984</c:v>
+                  <c:v>66.11189270019531</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>72.17118835449219</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>69.50753784179688</c:v>
+                  <c:v>69.50754547119141</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>56.26944732666016</c:v>
@@ -6065,7 +6065,7 @@
                   <c:v>58.76425933837891</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>70.14959716796875</c:v>
+                  <c:v>70.14960479736328</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>70.11809539794922</c:v>
@@ -6083,19 +6083,19 @@
                   <c:v>65.92953491210938</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>69.66419219970703</c:v>
+                  <c:v>69.6641845703125</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>73.46555328369141</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>71.07308197021484</c:v>
+                  <c:v>71.07309722900391</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>68.22913360595703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>62.81123352050781</c:v>
+                  <c:v>62.81121826171875</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>58.71512603759766</c:v>
@@ -6104,13 +6104,13 @@
                   <c:v>65.54826354980469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>67.83771514892578</c:v>
+                  <c:v>67.83772277832031</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71.97130584716797</c:v>
+                  <c:v>71.9713134765625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>72.03974151611328</c:v>
+                  <c:v>72.03973388671875</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>66.73622894287109</c:v>
@@ -6119,13 +6119,13 @@
                   <c:v>58.75093078613281</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>64.00822448730469</c:v>
+                  <c:v>64.00823211669922</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>67.10150146484375</c:v>
+                  <c:v>67.10149383544922</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>71.58975982666016</c:v>
+                  <c:v>71.58975219726562</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>59.62726593017578</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>62.27996063232422</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>58.72830963134766</c:v>
+                  <c:v>58.72830200195312</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>68.18181610107422</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>65.16120147705078</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>68.71878814697266</c:v>
+                  <c:v>68.71879577636719</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>59.57762908935547</c:v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>70.703125</v>
+        <v>70.70310974121094</v>
       </c>
       <c r="G3">
         <v>112</v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>54.56869506835938</v>
+        <v>54.56870269775391</v>
       </c>
       <c r="G4">
         <v>112</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>69.05840301513672</v>
+        <v>69.05841064453125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>62.85018920898438</v>
+        <v>62.85019683837891</v>
       </c>
       <c r="G7">
         <v>112</v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>69.09346771240234</v>
+        <v>69.09346008300781</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>58.29100036621094</v>
+        <v>58.29100799560547</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>61.05502319335938</v>
+        <v>61.05501556396484</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>71.7625</v>
       </c>
       <c r="F12">
-        <v>65.40891265869141</v>
+        <v>65.40890502929688</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>62.85262298583984</v>
+        <v>62.85261535644531</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>53.70481872558594</v>
+        <v>53.70481109619141</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>69.9408</v>
       </c>
       <c r="F19">
-        <v>66.57572937011719</v>
+        <v>66.57572174072266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>71.68598937988281</v>
+        <v>71.68599700927734</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>71.35027313232422</v>
+        <v>71.35028076171875</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>70.28861999511719</v>
+        <v>70.28861236572266</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>70.70022583007812</v>
+        <v>70.70021820068359</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>69.790771484375</v>
+        <v>69.79076385498047</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>71.85550689697266</v>
+        <v>71.85549926757812</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>69.06288909912109</v>
+        <v>69.06288146972656</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>75.60533142089844</v>
+        <v>75.60532379150391</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>69.40284729003906</v>
+        <v>69.40283966064453</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>61.63510131835938</v>
+        <v>61.63509368896484</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>82.1609</v>
       </c>
       <c r="F53">
-        <v>68.14293670654297</v>
+        <v>68.14292907714844</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>53.73600769042969</v>
+        <v>53.73600387573242</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>74.32714080810547</v>
+        <v>74.32713317871094</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>70.84222412109375</v>
+        <v>70.84223175048828</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>72.00331878662109</v>
+        <v>72.00331115722656</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>30.4312</v>
       </c>
       <c r="F60">
-        <v>66.11190032958984</v>
+        <v>66.11189270019531</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>46.4093</v>
       </c>
       <c r="F62">
-        <v>69.50753784179688</v>
+        <v>69.50754547119141</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>66.16630000000001</v>
       </c>
       <c r="F66">
-        <v>70.14959716796875</v>
+        <v>70.14960479736328</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>67.99120000000001</v>
       </c>
       <c r="F72">
-        <v>69.66419219970703</v>
+        <v>69.6641845703125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>71.07308197021484</v>
+        <v>71.07309722900391</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>62.81123352050781</v>
+        <v>62.81121826171875</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>67.83771514892578</v>
+        <v>67.83772277832031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>71.97130584716797</v>
+        <v>71.9713134765625</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>72.03974151611328</v>
+        <v>72.03973388671875</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>77.9639</v>
       </c>
       <c r="F84">
-        <v>64.00822448730469</v>
+        <v>64.00823211669922</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>67.10150146484375</v>
+        <v>67.10149383544922</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>71.58975982666016</v>
+        <v>71.58975219726562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>58.72830963134766</v>
+        <v>58.72830200195312</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>68.71878814697266</v>
+        <v>68.71879577636719</v>
       </c>
     </row>
     <row r="98" spans="1:6">
